--- a/biology/Zoologie/Aeshnidae/Aeshnidae.xlsx
+++ b/biology/Zoologie/Aeshnidae/Aeshnidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Aeshnidae (Eschnidés en français) fait partie des insectes anisoptères, dans l'ordre des odonates. Elle comprend principalement des libellules de taille moyenne, mais on y retrouve également des spécimens de très grande taille. Les membres de cette famille sont de couleur foncée avec des motifs colorés généralement bleus, verts ou jaunes[1]. On y compte 55 genres avec plus de 460 espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Aeshnidae (Eschnidés en français) fait partie des insectes anisoptères, dans l'ordre des odonates. Elle comprend principalement des libellules de taille moyenne, mais on y retrouve également des spécimens de très grande taille. Les membres de cette famille sont de couleur foncée avec des motifs colorés généralement bleus, verts ou jaunes. On y compte 55 genres avec plus de 460 espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aeshnidae possèdent un corps robuste et un abdomen allongé. Les ailes sont habituellement transparentes et les triangles des ailes antérieures et postérieures sont placés à égale distance de l’arculus et orientés vers l’apex de l’aile. Les yeux se touchent au-dessus de la tête sur une longue distance[3]. L’appellation anglophone de hawker (de l'anglais hawk, « fondre sur sa proie » comme un rapace) rappelle que les adultes chassent en vol et sont capables d'atteindre une vitesse de 58 km/h[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aeshnidae possèdent un corps robuste et un abdomen allongé. Les ailes sont habituellement transparentes et les triangles des ailes antérieures et postérieures sont placés à égale distance de l’arculus et orientés vers l’apex de l’aile. Les yeux se touchent au-dessus de la tête sur une longue distance. L’appellation anglophone de hawker (de l'anglais hawk, « fondre sur sa proie » comme un rapace) rappelle que les adultes chassent en vol et sont capables d'atteindre une vitesse de 58 km/h.
 			Corps d'Aeshnidae
 			Ailes d'Aeshnidae
 			Yeux d'Aeshnidae
@@ -547,9 +561,11 @@
           <t>Migration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une équipe de scientifiques, associant les Universités de Princeton et de Rutgers, a documenté la migration chez les Aeshnidae. L'étude visait à connaître les paramètres de migration d'Anax junius, une espèce vivant surtout en Amérique, qui réalise une migration du Nord-Est jusqu'au sud-est. L'équipe de scientifiques a capturé 14 spécimens dans le New Jersey et les ont munis de radio-émetteurs. Les libellules de l'étude avaient une vitesse moyenne de 12 km/h par jour. Les migratrices volent par beau temps, de jour, quelle que soit la direction du vent, mais se posent quand la vitesse de celui-ci dépasse les 25 km/h. Ce serait la température qui influencerait le plus leur période de vol[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une équipe de scientifiques, associant les Universités de Princeton et de Rutgers, a documenté la migration chez les Aeshnidae. L'étude visait à connaître les paramètres de migration d'Anax junius, une espèce vivant surtout en Amérique, qui réalise une migration du Nord-Est jusqu'au sud-est. L'équipe de scientifiques a capturé 14 spécimens dans le New Jersey et les ont munis de radio-émetteurs. Les libellules de l'étude avaient une vitesse moyenne de 12 km/h par jour. Les migratrices volent par beau temps, de jour, quelle que soit la direction du vent, mais se posent quand la vitesse de celui-ci dépasse les 25 km/h. Ce serait la température qui influencerait le plus leur période de vol.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthaeschna Selys, 1883
@@ -663,9 +681,11 @@
           <t>Genres rencontrés en Europe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (10 janvier 2022)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (10 janvier 2022) :
 Aeshna
 Anax
 Boyeria
